--- a/report.xlsx
+++ b/report.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,6 +27,7 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,533 +477,342 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>38916</v>
+        <v>22287</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43770</v>
+        <v>19310</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2196</v>
+        <v>1983</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>317</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43646</v>
+        <v>23708</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>50412</v>
+        <v>20790</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>17549</v>
+        <v>7833</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2460</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42492</v>
+        <v>219599</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>46699</v>
+        <v>25644</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>17709</v>
+        <v>16022</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2066</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43846</v>
+        <v>28590</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>50570</v>
+        <v>31153</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>29093</v>
+        <v>33321</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3614</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>47451</v>
+        <v>29328</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>55770</v>
+        <v>34742</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>36700</v>
+        <v>53562</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4422</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>48243</v>
+        <v>30088</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>57960</v>
+        <v>38385</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44153</v>
+        <v>75070</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4966</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>51510</v>
+        <v>26334</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>58804</v>
+        <v>32458</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>59954</v>
+        <v>52889</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5990</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>50658</v>
+        <v>24688</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>62384</v>
+        <v>33431</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>66837</v>
+        <v>93494</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>5492</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>52696</v>
+        <v>25240</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>62322</v>
+        <v>33679</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>70039</v>
+        <v>142458</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5375</v>
+        <v>14727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>62675</v>
+        <v>26242</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>66817</v>
+        <v>38106</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>75145</v>
+        <v>173897</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>7219</v>
+        <v>17483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>60935</v>
+        <v>29618</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>72460</v>
+        <v>36873</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>82823</v>
+        <v>234019</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>8105</v>
+        <v>21115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>58335</v>
+        <v>26742</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>76879</v>
+        <v>37548</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>131701</v>
+        <v>259571</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>10062</v>
+        <v>19921</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>69467</v>
+        <v>26988</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>85300</v>
+        <v>37307</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>115086</v>
+        <v>284763</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>9016</v>
+        <v>19443</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>73431</v>
+        <v>36702</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>89791</v>
+        <v>47058</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>102243</v>
+        <v>332460</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>7113</v>
+        <v>27324</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>82690</v>
+        <v>40124</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>100987</v>
+        <v>56558</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>57623</v>
+        <v>391464</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3466</v>
+        <v>31682</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>47037</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>60996</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>517670</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>37256</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>48785</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>69961</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>535956</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>35246</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>52895</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>83303</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>489472</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>27887</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>61394</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>98734</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>287915</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>91795</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>116651</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>18294</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>1115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="2" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Город</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Уровень зарплат</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr"/>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Город</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Доля вакансий</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>76970</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>32.46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>65286</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>11.97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>62254</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>60962</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2.37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>52580</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>51644</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Ростов-на-Дону</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2.09%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Челябинск</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>51265</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2.07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Самара</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>50994</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1.8499999999999999%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Пермь</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>48089</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Самара</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1.43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>47662</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Воронеж</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1.41%</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>78431</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>105671</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>91142</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>3933</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,10 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -483,13 +486,13 @@
         <v>22287</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>19310</v>
+        <v>19336</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1983</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +503,13 @@
         <v>23708</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>20790</v>
+        <v>21060</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>7833</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>666</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +520,13 @@
         <v>219599</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>25644</v>
+        <v>26595</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>16022</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1544</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="5">
@@ -534,13 +537,13 @@
         <v>28590</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>31153</v>
+        <v>33002</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>33321</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3768</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="6">
@@ -551,13 +554,13 @@
         <v>29328</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>34742</v>
+        <v>39491</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>53562</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>5801</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="7">
@@ -568,13 +571,13 @@
         <v>30088</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>38385</v>
+        <v>47119</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>75070</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>7716</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="8">
@@ -585,13 +588,13 @@
         <v>26334</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>32458</v>
+        <v>39828</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>52889</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5356</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="9">
@@ -602,13 +605,13 @@
         <v>24688</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>33431</v>
+        <v>41580</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>93494</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>9764</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="10">
@@ -619,13 +622,13 @@
         <v>25240</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>33679</v>
+        <v>45049</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>142458</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>14727</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +639,13 @@
         <v>26242</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>38106</v>
+        <v>49240</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>173897</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>17483</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="12">
@@ -653,13 +656,13 @@
         <v>29618</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>36873</v>
+        <v>51970</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>234019</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>21115</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="13">
@@ -670,13 +673,13 @@
         <v>26742</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>37548</v>
+        <v>55968</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>259571</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>19921</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="14">
@@ -687,13 +690,13 @@
         <v>26988</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>37307</v>
+        <v>51428</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>284763</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>19443</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="15">
@@ -704,13 +707,13 @@
         <v>36702</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>47058</v>
+        <v>54554</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>332460</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>27324</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="16">
@@ -721,13 +724,13 @@
         <v>40124</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>56558</v>
+        <v>56086</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>391464</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>31682</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="17">
@@ -738,13 +741,13 @@
         <v>47037</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>60996</v>
+        <v>59600</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>517670</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>37256</v>
+        <v>9231</v>
       </c>
     </row>
     <row r="18">
@@ -755,13 +758,13 @@
         <v>48785</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>69961</v>
+        <v>63622</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>535956</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>35246</v>
+        <v>9026</v>
       </c>
     </row>
     <row r="19">
@@ -772,13 +775,13 @@
         <v>52895</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>83303</v>
+        <v>62758</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>489472</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>27887</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="20">
@@ -789,13 +792,13 @@
         <v>61394</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>98734</v>
+        <v>71731</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>287915</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>13290</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="21">
@@ -806,13 +809,241 @@
         <v>78431</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>105671</v>
+        <v>87814</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>91142</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3933</v>
+        <v>1018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Город</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Уровень зарплат</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Город</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Доля вакансий</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Алматы</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>161448</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>40059</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.1014</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>38232</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Минск</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.0406</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Новосибирск</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>34027</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Киев</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Минск</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>33502</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Новосибирск</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.0236</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>32498</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Нижний Новгород</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.0214</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Краснодар</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>31845</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.0197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>29766</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Алматы</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.0189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Ростов-на-Дону</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>28015</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Воронеж</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.0186</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Пермь</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>27441</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.0186</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -486,13 +486,13 @@
         <v>22287</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>19336</v>
+        <v>19310</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1983</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -503,13 +503,13 @@
         <v>23708</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>21060</v>
+        <v>20790</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>7833</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>624</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4">
@@ -520,13 +520,13 @@
         <v>219599</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>26595</v>
+        <v>25644</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>16022</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1410</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>28590</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>33002</v>
+        <v>31153</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>33321</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3087</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="6">
@@ -554,13 +554,13 @@
         <v>29328</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>39491</v>
+        <v>34742</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>53562</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3873</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="7">
@@ -571,13 +571,13 @@
         <v>30088</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>47119</v>
+        <v>38385</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>75070</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4374</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="8">
@@ -588,13 +588,13 @@
         <v>26334</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>39828</v>
+        <v>32458</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>52889</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2864</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="9">
@@ -605,13 +605,13 @@
         <v>24688</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>41580</v>
+        <v>33431</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>93494</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>5269</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         <v>25240</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45049</v>
+        <v>33679</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>142458</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6380</v>
+        <v>14727</v>
       </c>
     </row>
     <row r="11">
@@ -639,13 +639,13 @@
         <v>26242</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>49240</v>
+        <v>38106</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>173897</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6665</v>
+        <v>17483</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         <v>29618</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>51970</v>
+        <v>36873</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>234019</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6055</v>
+        <v>21115</v>
       </c>
     </row>
     <row r="13">
@@ -673,13 +673,13 @@
         <v>26742</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>55968</v>
+        <v>37548</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>259571</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>5301</v>
+        <v>19921</v>
       </c>
     </row>
     <row r="14">
@@ -690,13 +690,13 @@
         <v>26988</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>51428</v>
+        <v>37307</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>284763</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4944</v>
+        <v>19443</v>
       </c>
     </row>
     <row r="15">
@@ -707,13 +707,13 @@
         <v>36702</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>54554</v>
+        <v>47058</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>332460</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>6552</v>
+        <v>27324</v>
       </c>
     </row>
     <row r="16">
@@ -724,13 +724,13 @@
         <v>40124</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>56086</v>
+        <v>56558</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>391464</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8067</v>
+        <v>31682</v>
       </c>
     </row>
     <row r="17">
@@ -741,13 +741,13 @@
         <v>47037</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>59600</v>
+        <v>60996</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>517670</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>9231</v>
+        <v>37256</v>
       </c>
     </row>
     <row r="18">
@@ -758,13 +758,13 @@
         <v>48785</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>63622</v>
+        <v>69961</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>535956</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>9026</v>
+        <v>35246</v>
       </c>
     </row>
     <row r="19">
@@ -775,13 +775,13 @@
         <v>52895</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>62758</v>
+        <v>83303</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>489472</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>6918</v>
+        <v>27887</v>
       </c>
     </row>
     <row r="20">
@@ -792,13 +792,13 @@
         <v>61394</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>71731</v>
+        <v>98734</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>287915</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>3326</v>
+        <v>13290</v>
       </c>
     </row>
     <row r="21">
@@ -809,13 +809,13 @@
         <v>78431</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>87814</v>
+        <v>105671</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>91142</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1018</v>
+        <v>3933</v>
       </c>
     </row>
   </sheetData>
